--- a/r1.xlsx
+++ b/r1.xlsx
@@ -8,36 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\PycharmProjects\pythonProject2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9480343A-FE05-48A5-8881-D991F1FDE117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CBC25E-28FA-41E4-A02B-2FEBC1A361FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C73E1F85-2AE9-4FC8-A118-5C1752213360}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C73E1F85-2AE9-4FC8-A118-5C1752213360}"/>
   </bookViews>
   <sheets>
     <sheet name="r1" sheetId="1" r:id="rId1"/>
     <sheet name="r2" sheetId="2" r:id="rId2"/>
+    <sheet name="r3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>ip</t>
   </si>
@@ -54,9 +44,6 @@
     <t>255.255.255.0</t>
   </si>
   <si>
-    <t>gi 1/0</t>
-  </si>
-  <si>
     <t>11.11.11.0</t>
   </si>
   <si>
@@ -78,13 +65,34 @@
     <t>15.15.15.1</t>
   </si>
   <si>
-    <t>gi 0/0</t>
-  </si>
-  <si>
     <t>gi 0/1</t>
   </si>
   <si>
     <t>gi 0/2</t>
+  </si>
+  <si>
+    <t>16.16.16.1</t>
+  </si>
+  <si>
+    <t>17.17.17.1</t>
+  </si>
+  <si>
+    <t>18.18.18.1</t>
+  </si>
+  <si>
+    <t>gi 2/2</t>
+  </si>
+  <si>
+    <t>gi 2/1</t>
+  </si>
+  <si>
+    <t>gi 2/3</t>
+  </si>
+  <si>
+    <t>gi 1/3</t>
+  </si>
+  <si>
+    <t>gi 0/3</t>
   </si>
 </sst>
 </file>
@@ -467,29 +475,29 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -501,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699AA749-33F9-4424-9972-7AA1F0932F75}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,35 +531,94 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97415884-2721-4457-AD09-6DA1A1BF8B12}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/r1.xlsx
+++ b/r1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\PycharmProjects\pythonProject2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CBC25E-28FA-41E4-A02B-2FEBC1A361FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DFDF58-00BE-4FE3-9E3F-9DECC6E78E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C73E1F85-2AE9-4FC8-A118-5C1752213360}"/>
+    <workbookView xWindow="3504" yWindow="2904" windowWidth="17280" windowHeight="8964" xr2:uid="{C73E1F85-2AE9-4FC8-A118-5C1752213360}"/>
   </bookViews>
   <sheets>
     <sheet name="r1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>ip</t>
   </si>
@@ -50,9 +50,6 @@
     <t>gi 1/1</t>
   </si>
   <si>
-    <t>12.12.12.1</t>
-  </si>
-  <si>
     <t>gi 1/2</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
   </si>
   <si>
     <t>gi 1/3</t>
-  </si>
-  <si>
-    <t>gi 0/3</t>
   </si>
 </sst>
 </file>
@@ -444,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC39024-F768-4D76-9B05-4BA8932353D3}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,7 +469,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -486,18 +480,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -531,7 +514,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -542,24 +525,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -571,7 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97415884-2721-4457-AD09-6DA1A1BF8B12}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -590,35 +573,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
